--- a/data/balance_sheet/3digits/total/324_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/324_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>324-Manufacture of games and toys</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>324-Manufacture of games and toys</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>135209.17492</v>
@@ -1496,26 +946,31 @@
         <v>286964.32053</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>401889.45325</v>
+        <v>402048.69207</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>464803.32236</v>
+        <v>471847.04901</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>566768.58679</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>748417.11659</v>
+        <v>759196.6905799999</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>866865.20068</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>876738.2875399999</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1183295.712</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>11498.80782</v>
@@ -1536,32 +991,37 @@
         <v>23511.83413</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>34787.87728</v>
+        <v>34788.29374</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>54604.16101</v>
+        <v>54799.22495</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>63806.11707</v>
+        <v>63806.11706999999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>74204.30271999999</v>
+        <v>74808.84149999999</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>181505.46737</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>182111.74075</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>295632.728</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4569.32434</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>7018.982649999999</v>
+        <v>7018.98265</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>4431.656089999999</v>
@@ -1573,29 +1033,34 @@
         <v>5750.132549999998</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>6914.379319999999</v>
+        <v>6914.37932</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>8861.81429</v>
+        <v>8862.221130000002</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>10950.70791</v>
+        <v>10950.88454</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>16601.591</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>14932.64714</v>
+        <v>15119.54025</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>15262.08328</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>15465.64189</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>19821.997</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>4445.70765</v>
@@ -1607,7 +1072,7 @@
         <v>8154.924480000001</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>8817.377559999999</v>
+        <v>8817.377560000001</v>
       </c>
       <c r="G8" s="22" t="n">
         <v>8240.228570000001</v>
@@ -1619,23 +1084,28 @@
         <v>22977.31269</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>45441.02370999999</v>
+        <v>45631.02371</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>26362.91249</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>46639.81374</v>
+        <v>46841.81374</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>119803.90556</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>120136.07296</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>137498.774</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>3113.81432</v>
@@ -1656,26 +1126,31 @@
         <v>7999.10182</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>12227.08146</v>
+        <v>12227.09108</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>19634.72484</v>
+        <v>19639.61215</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>37442.63224</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>33939.68452</v>
+        <v>34155.33019</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>62330.4513</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>62397.42167</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>148393.044</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>990.2746</v>
@@ -1690,7 +1165,7 @@
         <v>2846.59803</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>4789.13653</v>
+        <v>4789.136530000001</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>6249.2775</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>21724.74577</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>23401.804</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>360.23611</v>
@@ -1733,7 +1213,7 @@
         <v>1447.93868</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>639.6621100000001</v>
+        <v>639.66211</v>
       </c>
       <c r="I11" s="22" t="n">
         <v>1228.95424</v>
@@ -1748,14 +1228,19 @@
         <v>2169.35045</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>5833.773</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>5837.35</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>13320.717</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>5.13935</v>
@@ -1770,7 +1255,7 @@
         <v>8.445030000000001</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>35.08347</v>
+        <v>35.08346999999999</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>159.07573</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>218.7238</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>281.668</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>61.589</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>5.13935</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0.58997</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>0</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>200.13383</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>201.489</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>56085.70157</v>
@@ -2016,35 +1531,40 @@
         <v>127606.81772</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>191318.24842</v>
+        <v>191377.24842</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>202352.64103</v>
+        <v>203430.50068</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>252205.3121</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>269684.37814</v>
+        <v>271408.88069</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>246235.38532</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>251545.439</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>327290.338</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>45392.29715000001</v>
+        <v>45392.29715</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>54859.62507</v>
+        <v>54859.62506999999</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>58936.6999</v>
+        <v>58936.69990000001</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>63982.23673</v>
@@ -2059,23 +1579,28 @@
         <v>139532.84683</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>174600.97191</v>
+        <v>175678.66172</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>179213.61868</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>220469.31125</v>
+        <v>222150.84044</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>217928.01502</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>222543.8187</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>270018.772</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>10118.19122</v>
@@ -2096,26 +1621,31 @@
         <v>34245.02505</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>48894.67920000001</v>
+        <v>48953.67920000001</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>26015.13321</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>70148.34238</v>
+        <v>70148.34238000002</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>46745.76213999999</v>
+        <v>46745.76214</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>23576.32363</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>24266.82363</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>51797.849</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>138.79766</v>
@@ -2219,23 +1759,28 @@
         <v>268.61127</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>542.0759300000001</v>
+        <v>542.24577</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>739.9917800000001</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>535.4831399999999</v>
+        <v>578.4565</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>743.7646599999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>747.51466</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>1186.096</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>214.93434</v>
@@ -2247,13 +1792,13 @@
         <v>438.57636</v>
       </c>
       <c r="F24" s="21" t="n">
-        <v>407.8361399999999</v>
+        <v>407.83614</v>
       </c>
       <c r="G24" s="22" t="n">
         <v>352.54345</v>
       </c>
       <c r="H24" s="21" t="n">
-        <v>390.9545600000001</v>
+        <v>390.95456</v>
       </c>
       <c r="I24" s="22" t="n">
         <v>1785.36988</v>
@@ -2270,15 +1815,20 @@
       <c r="M24" s="22" t="n">
         <v>1460.39467</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>1120.965</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
-        <v>655.80115</v>
+        <v>655.8011500000001</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>625.8797099999999</v>
@@ -2299,23 +1849,28 @@
         <v>2395.81199</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>4583.94852</v>
+        <v>4601.20248</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>4706.722589999999</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>4907.81123</v>
+        <v>4925.065189999999</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>7069.79868</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>7102.798680000001</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>8716.02</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>434.31995</v>
@@ -2339,23 +1894,28 @@
         <v>1559.07075</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>3810.119989999999</v>
+        <v>3827.37395</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>3734.71621</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>4092.12561</v>
+        <v>4109.37957</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>4542.91134</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>4575.91134</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>5549.364</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>7521.07</v>
@@ -2367,35 +1927,40 @@
         <v>7070.36282</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>5829.66763</v>
+        <v>5829.667629999999</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>8925.775390000001</v>
+        <v>8925.775389999999</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>7136.29401</v>
+        <v>7136.294010000001</v>
       </c>
       <c r="I27" s="23" t="n">
         <v>9313.743639999999</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>11940.79855</v>
+        <v>11941.38495</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>16988.51892</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>15768.12551</v>
+        <v>15851.08502</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>13657.23218</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>14025.09144</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>14506.114</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>6493.52983</v>
@@ -2425,17 +1990,22 @@
         <v>13093.35746</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>10539.77602</v>
+        <v>10569.83274</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>8043.233180000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>8311.36555</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>9000.466</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>10.86284</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1027.54017</v>
@@ -2579,23 +2164,28 @@
         <v>3337.17665</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>3889.28315</v>
+        <v>3889.86955</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>3790.54514</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>5124.758389999999</v>
+        <v>5165.197480000001</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>5499.54506</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>5586.80825</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>5399.502</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2665,17 +2260,22 @@
         <v>103.5911</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>103.5911</v>
+        <v>116.0548</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>103.5911</v>
-      </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+        <v>116.0548</v>
+      </c>
+      <c r="N34" s="22" t="n">
+        <v>103.591</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>56087.76778</v>
@@ -2724,7 +2329,7 @@
         <v>61880.88328</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>73271.65794999999</v>
+        <v>73271.65795000001</v>
       </c>
       <c r="F36" s="33" t="n">
         <v>91266.60567</v>
@@ -2736,26 +2341,31 @@
         <v>118550.00669</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>154700.13676</v>
+        <v>154784.1615</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>181267.85674</v>
+        <v>185919.67093</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>217565.04392</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>361188.09356</v>
+        <v>367904.6897100001</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>395874.55551</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>397917.58476</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>496197.258</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>23911.02557</v>
@@ -2773,7 +2383,7 @@
         <v>29807.01234</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>34474.37816000001</v>
+        <v>34474.37815999999</v>
       </c>
       <c r="I37" s="22" t="n">
         <v>40076.72721</v>
@@ -2785,17 +2395,22 @@
         <v>46746.53459</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>78078.37006999999</v>
+        <v>78580.43508</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>105532.92155</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>105953.15307</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>148846.925</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>3443.66425</v>
@@ -2804,10 +2419,10 @@
         <v>5738.482739999999</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>6762.337920000001</v>
+        <v>6762.33792</v>
       </c>
       <c r="F38" s="21" t="n">
-        <v>6926.85708</v>
+        <v>6926.857079999999</v>
       </c>
       <c r="G38" s="22" t="n">
         <v>11607.45976</v>
@@ -2816,7 +2431,7 @@
         <v>14085.59771</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>22524.46919</v>
+        <v>22594.44611</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>30932.42061</v>
@@ -2825,17 +2440,22 @@
         <v>33405.00769</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>44314.45144</v>
+        <v>44347.74356</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>70216.92933</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>69745.38109000001</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>83567.62</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>13957.79304</v>
@@ -2865,20 +2485,25 @@
         <v>77577.99009000001</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>115485.01117</v>
+        <v>115967.86116</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>95705.34345</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>96656.47296000001</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>95238.27899999999</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>8520.567640000001</v>
+        <v>8520.567639999999</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>13188.07814</v>
@@ -2896,26 +2521,31 @@
         <v>20096.55529</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>20406.81302</v>
+        <v>20420.86084</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>20675.39044</v>
+        <v>24534.85346</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>24580.30147</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>55467.79573000001</v>
+        <v>59956.63359</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>59033.94706999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>59625.01784</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>69906.432</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>2996.17236</v>
@@ -2927,7 +2557,7 @@
         <v>1422.31689</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>949.4095399999999</v>
+        <v>949.40954</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>915.9888400000001</v>
@@ -2939,23 +2569,28 @@
         <v>1006.22386</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>1314.64063</v>
+        <v>2016.54202</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>1013.37505</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>652.8814600000001</v>
+        <v>1358.98285</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>1216.82224</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>1221.02224</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>2445.5</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>3258.54492</v>
@@ -3004,7 +2644,7 @@
         <v>5146.26056</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>7621.580809999999</v>
+        <v>7621.58081</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>16371.06462</v>
@@ -3019,23 +2659,28 @@
         <v>26649.30229</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>21835.77031</v>
+        <v>21926.22009</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>34241.83503</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>67189.58369</v>
+        <v>67693.03346999999</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>64168.59187</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>64716.53756</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>96192.50199999999</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>13.703</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>15.146</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>13.703</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>15.146</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>614.92578</v>
@@ -3225,17 +2890,22 @@
         <v>3657.70322</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>6417.005639999999</v>
+        <v>6646.142200000001</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3853.17912</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>4355.06485</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>6275.561</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>575.1932399999999</v>
@@ -3247,7 +2917,7 @@
         <v>575.61924</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>611.5336299999999</v>
+        <v>611.53363</v>
       </c>
       <c r="G49" s="22" t="n">
         <v>407.8997</v>
@@ -3265,20 +2935,25 @@
         <v>3632.13376</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>6406.97192</v>
+        <v>6636.10848</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>3850.91069</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>4352.79642</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>6270.361</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>39.73253999999999</v>
+        <v>39.73254</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>15.58126</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>2.26843</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3382.05962</v>
@@ -3327,7 +3007,7 @@
         <v>5335.98549</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>6565.91652</v>
+        <v>6565.916520000001</v>
       </c>
       <c r="G51" s="46" t="n">
         <v>6426.561610000001</v>
@@ -3336,26 +3016,31 @@
         <v>8530.011030000001</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>9558.27426</v>
+        <v>9574.07188</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>10736.27115</v>
+        <v>11854.67362</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>12362.67805</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>20940.62105</v>
+        <v>22362.46149</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>25520.65738</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>26564.64294</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>43096.899</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>2802.64253</v>
@@ -3370,32 +3055,37 @@
         <v>5236.844810000001</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>4891.273520000001</v>
+        <v>4891.27352</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>6609.25674</v>
+        <v>6609.256739999999</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>7656.469270000001</v>
+        <v>7672.26689</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>7249.61825</v>
+        <v>8261.931450000002</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>8909.877010000002</v>
+        <v>8909.87701</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>17257.13896</v>
+        <v>18564.20015</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>20356.80496</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>20673.61539</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>31781.152</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0.16061</v>
@@ -3428,20 +3118,25 @@
         <v>16.23414</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>68.74468999999999</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>68.81979999999999</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>130.891</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>261.36327</v>
       </c>
       <c r="D54" s="22" t="n">
-        <v>441.8511999999999</v>
+        <v>441.8512</v>
       </c>
       <c r="E54" s="22" t="n">
         <v>288.49376</v>
@@ -3450,7 +3145,7 @@
         <v>517.70217</v>
       </c>
       <c r="G54" s="22" t="n">
-        <v>581.8116799999999</v>
+        <v>581.81168</v>
       </c>
       <c r="H54" s="21" t="n">
         <v>595.28761</v>
@@ -3465,17 +3160,22 @@
         <v>1153.8324</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>1145.70222</v>
+        <v>1164.89281</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>1400.7935</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>1762.77787</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>3058.263</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>107.37844</v>
@@ -3490,32 +3190,37 @@
         <v>317.9104</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>446.1253800000001</v>
+        <v>446.12538</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>351.34619</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>385.5584499999999</v>
+        <v>385.55845</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>873.0508600000001</v>
+        <v>957.58313</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>1068.07789</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>842.0491699999998</v>
+        <v>926.5814399999999</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>358.17037</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>362.40703</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2923.562</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>179.93383</v>
@@ -3539,23 +3244,28 @@
         <v>211.67188</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>979.2296000000001</v>
+        <v>1000.7866</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>388.2311</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>386.89861</v>
+        <v>408.45561</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>2489.00321</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>2849.8822</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>4181.633</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>26.21537</v>
@@ -3570,7 +3280,7 @@
         <v>36.6459</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>51.58454999999999</v>
+        <v>51.58455</v>
       </c>
       <c r="H57" s="21" t="n">
         <v>86.94162</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>448.91448</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>623.171</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>94.58230999999999</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>94.583</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>4.36557</v>
@@ -3665,16 +3385,21 @@
         <v>310.21786</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>314.14447</v>
+        <v>303.64386</v>
       </c>
       <c r="M59" s="22" t="n">
         <v>303.64386</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>303.644</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>41801.1666</v>
@@ -3723,38 +3453,43 @@
         <v>46978.31326</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>62482.59741999999</v>
+        <v>62482.59742</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>67135.60227</v>
+        <v>67135.60227000002</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>79284.49625999999</v>
+        <v>79284.49626</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>95532.35179</v>
+        <v>95532.35178999999</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>126853.66476</v>
+        <v>126871.83195</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>177238.91418</v>
+        <v>177612.57519</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>291488.10537</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>352492.84753</v>
+        <v>353826.1302899999</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>429502.91375</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>432588.69301</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>527734.262</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>221.73868</v>
@@ -3769,32 +3504,37 @@
         <v>217.65302</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>327.3130400000001</v>
+        <v>327.31304</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>381.88546</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>666.3564900000001</v>
+        <v>666.35649</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>600.05633</v>
+        <v>600.15445</v>
       </c>
       <c r="K62" s="36" t="n">
-        <v>3572.961609999999</v>
+        <v>3572.96161</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>2820.41688</v>
+        <v>2820.515</v>
       </c>
       <c r="M62" s="36" t="n">
         <v>2671.69955</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>3620.553</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>1967.30458</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>2733.049</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>221.73868</v>
@@ -3969,7 +3729,7 @@
         <v>217.65302</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>327.3130400000001</v>
+        <v>327.31304</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>381.88546</v>
@@ -3978,23 +3738,28 @@
         <v>481.33239</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>600.05633</v>
+        <v>600.15445</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1375.65679</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>853.1123</v>
+        <v>853.21042</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>704.3949699999999</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>704.3949700000001</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>740.904</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>545.04711</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>464.86545</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>1191.465</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>66.15777</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>386.49641</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>1111.136</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>478.88934</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>77.36904000000001</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>78.32899999999999</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>279.51463</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>767.2120600000001</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>1082.025</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>279.51463</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>767.2120600000001</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>604.025</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>478</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,18 +4649,23 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>33122.81436</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>39203.89591000001</v>
+        <v>39203.89591</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>54784.32862000001</v>
@@ -4815,26 +4680,31 @@
         <v>84669.01643999999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>109382.21704</v>
+        <v>109398.12464</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>152554.30285</v>
+        <v>152923.77368</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>208459.182</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>251783.33331</v>
+        <v>252858.04606</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>303379.15816</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>304478.58004</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>391548.642</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>782.8497199999999</v>
@@ -4846,10 +4716,10 @@
         <v>9408.561159999999</v>
       </c>
       <c r="F89" s="21" t="n">
-        <v>5381.40385</v>
+        <v>5381.403850000001</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>7736.466909999999</v>
+        <v>7736.46691</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>7823.442690000001</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>27581.43886</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>35423.095</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>43.00747</v>
@@ -4909,18 +4784,23 @@
       <c r="M90" s="22" t="n">
         <v>1248.20051</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>1246.082</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>8435.651310000001</v>
+        <v>8435.651309999999</v>
       </c>
       <c r="D91" s="22" t="n">
-        <v>9204.68355</v>
+        <v>9204.683550000002</v>
       </c>
       <c r="E91" s="22" t="n">
         <v>13802.26233</v>
@@ -4941,7 +4821,7 @@
         <v>25899.33898</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>63150.14709000001</v>
+        <v>63150.14709</v>
       </c>
       <c r="L91" s="22" t="n">
         <v>74644.47777000001</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>82157.67397</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>90848.859</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>26726.61231</v>
@@ -4963,7 +4848,7 @@
         <v>31635.45337</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>37946.25215000001</v>
+        <v>37946.25215</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>45805.39695</v>
@@ -4978,23 +4863,28 @@
         <v>72154.33653</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>85752.88975999999</v>
+        <v>85759.22867</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>103542.86303</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>124906.55722</v>
+        <v>125174.30034</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>161192.95958</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>161739.53917</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>213089.866</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>9997.391230000001</v>
@@ -5024,23 +4914,28 @@
         <v>27635.03108</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>32766.61097</v>
+        <v>33150.63295000001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>38700.72290000001</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>38941.90379</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>52167.056</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>7384.08816</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>8053.068030000001</v>
+        <v>8053.06803</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>9261.147219999999</v>
@@ -5055,26 +4950,31 @@
         <v>12525.36089</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>16204.83016</v>
+        <v>16227.55134</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>22615.93004</v>
+        <v>23627.29233</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>49498.08395</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>53634.7635</v>
+        <v>55048.64827000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>56318.83158999999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>56750.26267</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>65106.733</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>115.23149</v>
@@ -5092,10 +4992,10 @@
         <v>212.46868</v>
       </c>
       <c r="H95" s="21" t="n">
-        <v>296.4805899999999</v>
+        <v>296.48059</v>
       </c>
       <c r="I95" s="22" t="n">
-        <v>350.0483100000001</v>
+        <v>350.04831</v>
       </c>
       <c r="J95" s="21" t="n">
         <v>413.83841</v>
@@ -5104,17 +5004,22 @@
         <v>251.75453</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>408.52206</v>
+        <v>418.10851</v>
       </c>
       <c r="M95" s="22" t="n">
         <v>1581.77406</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>1716.953</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>24386.6074</v>
@@ -5135,26 +5040,31 @@
         <v>46946.96423999999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>56313.27182</v>
+        <v>56320.0854</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>65947.83942999999</v>
+        <v>66596.0698</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>88560.78584</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>107913.47742</v>
+        <v>108914.00099</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>122683.53571</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>123062.25514</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>152296.176</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>2603.07375</v>
@@ -5169,7 +5079,7 @@
         <v>4408.935</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>9735.607330000001</v>
+        <v>9735.607329999999</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>16099.21088</v>
@@ -5187,14 +5097,19 @@
         <v>38736.52426999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>51337.38972</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>50869.86632000001</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>78385.71000000001</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1421.51632</v>
@@ -5227,23 +5142,28 @@
         <v>6249.521400000001</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>5943.702679999999</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>6670.17583</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>5860.464</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>5376.263</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>4616.475380000001</v>
+        <v>4616.47538</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>4713.435010000001</v>
+        <v>4713.43501</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>5166.36441</v>
@@ -5255,26 +5175,31 @@
         <v>5538.57799</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>7630.85065</v>
+        <v>7633.110239999999</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>11213.63085</v>
+        <v>11217.72291</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>55907.03915999999</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>64420.28511</v>
+        <v>64498.88753</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>70455.67659</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>72332.46696999999</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>85134.431</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>2842.87205</v>
@@ -5298,23 +5223,28 @@
         <v>5831.58283</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>8696.152259999999</v>
+        <v>8782.31841</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>31315.01547</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>37054.09756</v>
+        <v>37176.50457</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>39459.24421</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>39462.15099</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>49705.23</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5347,17 +5277,22 @@
         <v>0</v>
       </c>
       <c r="M101" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+        <v>1.3705</v>
+      </c>
+      <c r="N101" s="22" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>36.8101</v>
+        <v>36.81010000000001</v>
       </c>
       <c r="D102" s="22" t="n">
         <v>38.92903</v>
@@ -5375,26 +5310,31 @@
         <v>39.27731</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>52.34853</v>
+        <v>53.05273</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>64.50104999999999</v>
+        <v>64.50105000000001</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>69.50381</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>1227.36331</v>
+        <v>1231.34465</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>1239.03985</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>1252.40384</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>1256.456</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5424,17 +5364,22 @@
         <v>1509.11532</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>3292.06341</v>
+        <v>3352.58969</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>4542.19356</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>6390.05799</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>10401.694</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>4074.38586</v>
@@ -5443,10 +5388,10 @@
         <v>4051.92006</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>4231.882850000001</v>
+        <v>4231.88285</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>4881.78036</v>
+        <v>4881.780360000001</v>
       </c>
       <c r="G104" s="22" t="n">
         <v>5054.15667</v>
@@ -5455,26 +5400,31 @@
         <v>5258.531220000001</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>5692.15504</v>
+        <v>5693.71043</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>3659.23647</v>
+        <v>3694.84447</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>27831.93528</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>30455.92543</v>
+        <v>30494.17933</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>34816.41398</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>34834.15621</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>36852.533</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>969.72375</v>
@@ -5498,23 +5448,28 @@
         <v>1758.27243</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>2396.7147</v>
+        <v>2433.56076</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>6545.27039</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>6683.04912</v>
+        <v>6719.89518</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>6883.445019999999</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>6884.91431</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>7234.081</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>2547.52876</v>
@@ -5523,7 +5478,7 @@
         <v>2959.11787</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>3622.291400000001</v>
+        <v>3622.2914</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>4148.76181</v>
@@ -5532,29 +5487,34 @@
         <v>4602.09308</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>5060.874599999999</v>
+        <v>5060.874600000001</v>
       </c>
       <c r="I106" s="22" t="n">
         <v>5731.43743</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>3788.21267</v>
+        <v>3942.74082</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>11388.12853</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>14330.57169</v>
+        <v>14513.98386</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>16489.19371</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>16497.12055</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>20347.39</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>4.53368</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>30.456</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>948.39</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>378.993</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>1.89</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>946.5</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>377.103</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2247.17251</v>
@@ -5864,17 +5859,22 @@
         <v>17326.79621</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>21531.28342</v>
+        <v>21662.48959</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>40727.71618</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>40837.28318</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>34692.828</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2247.17251</v>
@@ -5904,17 +5904,22 @@
         <v>17326.79621</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>21531.28342</v>
+        <v>21662.48959</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>40727.71618</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>40837.28318</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>34692.828</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>8.616310000000002</v>
@@ -5984,17 +5994,22 @@
         <v>2032.82809</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>10023.08457</v>
+        <v>10071.74787</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>10088.19576</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>10085.325</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>1.37825</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>3.97686</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6144,17 +6174,22 @@
         <v>62.72</v>
       </c>
       <c r="L121" s="22" t="n">
-        <v>62.72</v>
+        <v>111.3833</v>
       </c>
       <c r="M121" s="22" t="n">
         <v>111.3833</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>108.383</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>7.238060000000001</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>298.7</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>298.83</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>3.825</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6347,14 +6402,19 @@
         <v>9944.395839999999</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>9677.9606</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>9677.960600000002</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>9677.959999999999</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>177010.34152</v>
@@ -6372,26 +6432,29 @@
         <v>331115.77542</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>382496.6723200001</v>
+        <v>382496.67232</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>528743.11801</v>
+        <v>528920.52402</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>642042.23654</v>
+        <v>649459.6242000001</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>858256.69216</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1100909.96412</v>
+        <v>1113022.82087</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1296368.11443</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1309326.98055</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1711029.974</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>324-Manufacture of games and toys</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>92408.96724</v>
+        <v>92408.96724000001</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>113354.64075</v>
@@ -6507,26 +6584,31 @@
         <v>216676.43762</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>309546.26123</v>
+        <v>309638.60214</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>350320.51615</v>
+        <v>359395.72111</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>426093.46162</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>615930.7880699999</v>
+        <v>628690.08738</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>671351.5565299999</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>682691.07062</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>947795.971</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>15913.75221</v>
@@ -6547,26 +6629,31 @@
         <v>37054.7769</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>52809.43182</v>
+        <v>52809.43181999999</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>73586.47399</v>
+        <v>79345.09122</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>81625.25383</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>119762.83592</v>
+        <v>125628.91057</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>134058.14138</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>134215.20006</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>173108.103</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>15718.15996</v>
@@ -6590,23 +6677,28 @@
         <v>51814.06920000001</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>72520.99662000001</v>
+        <v>78279.61385000001</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>78561.44117999999</v>
+        <v>78561.44118000001</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>104591.90352</v>
+        <v>110457.97817</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>128463.96338</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>128621.02206</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>171270.293</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>139.36583</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>6149.36888</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>1365.848</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>22.8599</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>1466.5598</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>219.653</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>75.35749</v>
@@ -6704,7 +6806,7 @@
         <v>1881.395</v>
       </c>
       <c r="H137" s="21" t="n">
-        <v>5071.571640000001</v>
+        <v>5071.57164</v>
       </c>
       <c r="I137" s="22" t="n">
         <v>413.68827</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>327.75816</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>161.892</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>3.72883</v>
@@ -6904,7 +7031,7 @@
         <v>126.71724</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>84.17571000000001</v>
+        <v>84.17571</v>
       </c>
       <c r="I142" s="22" t="n">
         <v>289.20647</v>
@@ -6913,7 +7040,7 @@
         <v>206.69885</v>
       </c>
       <c r="K142" s="22" t="n">
-        <v>392.25921</v>
+        <v>392.2592099999999</v>
       </c>
       <c r="L142" s="22" t="n">
         <v>474.05079</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>583.61076</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>529.723</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>37506.07652</v>
@@ -6935,10 +7067,10 @@
         <v>44744.3978</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>52849.21291</v>
+        <v>52849.21290999999</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>56581.66952</v>
+        <v>56581.66952000001</v>
       </c>
       <c r="G143" s="46" t="n">
         <v>82189.33043</v>
@@ -6947,26 +7079,31 @@
         <v>90815.048</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>121715.92312</v>
+        <v>121743.81714</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>115510.61136</v>
+        <v>116115.24981</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>147259.7933</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>194654.5823</v>
+        <v>197170.96236</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>195533.76805</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>201807.77636</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>294507.176</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>29818.00441</v>
@@ -6978,7 +7115,7 @@
         <v>39249.09234</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>43203.99501</v>
+        <v>43203.99501000001</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>59130.62011</v>
@@ -6987,29 +7124,34 @@
         <v>65330.44644</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>83896.65029999999</v>
+        <v>83924.54432</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>80100.17804000001</v>
+        <v>80704.81649</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>90452.92829</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>108840.88778</v>
+        <v>111308.40151</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>125503.05883</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>131524.53921</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>182005.911</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>7210.571480000001</v>
+        <v>7210.57148</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>12090.98695</v>
@@ -7027,7 +7169,7 @@
         <v>23381.62972</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>32862.48884</v>
+        <v>32862.48884000001</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>30214.49022</v>
@@ -7036,17 +7178,22 @@
         <v>44408.39034000001</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>71587.98362</v>
+        <v>71589.38362000001</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>59699.63228</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>59709.49728</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>94933.068</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>8.497200000000001</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>977.94439</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>995.112</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>469.00343</v>
@@ -7135,7 +7292,7 @@
         <v>1314.51595</v>
       </c>
       <c r="E148" s="25" t="n">
-        <v>630.39769</v>
+        <v>630.3976899999999</v>
       </c>
       <c r="F148" s="24" t="n">
         <v>583.15314</v>
@@ -7156,17 +7313,22 @@
         <v>11220.74592</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>9928.092139999999</v>
+        <v>9975.55847</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>9353.13255</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>9595.795479999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>16573.085</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>21943.26982</v>
@@ -7187,26 +7349,31 @@
         <v>36795.45488</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>56433.77615999999</v>
+        <v>56488.42547</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>89486.51629</v>
+        <v>92065.41850999999</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>100970.91777</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>114899.16304</v>
+        <v>118479.93314</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>121220.01753</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>124124.3618</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>177371.178</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>20533.3808</v>
@@ -7227,26 +7394,31 @@
         <v>33472.63682</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>52562.22227</v>
+        <v>52611.00173999999</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>78518.00641</v>
+        <v>81064.60237000001</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>87760.65851000001</v>
+        <v>87760.65850999999</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>105232.53636</v>
+        <v>108745.35508</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>108681.54462</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>110286.36941</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>159170.625</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>28.76117</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>787.74799</v>
@@ -7350,29 +7532,34 @@
         <v>2685.02322</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>4019.080210000001</v>
+        <v>4038.68013</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>5269.654570000001</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>7305.329360000001</v>
+        <v>7358.6394</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>7585.53205</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>8842.28333</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>11235.049</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>622.14103</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>846.2761999999999</v>
+        <v>846.2762</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>1077.69429</v>
@@ -7387,26 +7574,31 @@
         <v>1149.9247</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>1186.53067</v>
+        <v>1192.40051</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>6921.85625</v>
+        <v>6934.56259</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>7940.604689999999</v>
+        <v>7940.60469</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>2332.53615</v>
+        <v>2347.17749</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>4924.179690000001</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>4966.947889999999</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>6965.504</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>10539.2966</v>
@@ -7470,23 +7667,28 @@
         <v>60185.26684</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>49659.60643</v>
+        <v>49776.4556</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>67617.34091</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>145289.62199</v>
+        <v>145436.75116</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>181113.27439</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>181168.83281</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>257263.299</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>10539.2966</v>
@@ -7510,23 +7712,28 @@
         <v>60185.26684</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>49500.61768</v>
+        <v>49617.46685</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>67601.44409999999</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>145273.72518</v>
+        <v>145420.85435</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>179967.35749</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>180022.91591</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>256544.012</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1145.9169</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>719.287</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,18 +7903,23 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>5698.69886</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>7036.548900000001</v>
+        <v>7036.5489</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>7220.87992</v>
@@ -7704,35 +7931,40 @@
         <v>9172.11765</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>8579.669049999999</v>
+        <v>8579.66905</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>14105.08992</v>
+        <v>14114.8875</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>18464.11155</v>
+        <v>18480.30944</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>25426.40243</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>32207.3358</v>
+        <v>32854.60615</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>33642.31105</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>35579.99120999999</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>39896.564</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>2429.40754</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>3301.435600000001</v>
+        <v>3301.4356</v>
       </c>
       <c r="E163" s="22" t="n">
         <v>1736.23876</v>
@@ -7747,26 +7979,31 @@
         <v>3118.65415</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>6009.174730000001</v>
+        <v>6018.97231</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>6402.29029</v>
+        <v>6403.371049999999</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>9579.1214</v>
+        <v>9579.121399999998</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>12594.75968</v>
+        <v>12902.85287</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>10187.83183</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>11233.9723</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>12183.893</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1792.86534</v>
@@ -7790,23 +8027,28 @@
         <v>2878.43447</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>4581.54112</v>
+        <v>4596.65825</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>5821.10639</v>
+        <v>5821.106390000001</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>5946.08258</v>
+        <v>6103.88307</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>7552.35622</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>8288.50433</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7340.674</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1407.29715</v>
@@ -7830,23 +8072,28 @@
         <v>5211.536450000001</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>7468.7733</v>
+        <v>7468.773300000001</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>10017.40724</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>13631.45204</v>
+        <v>13812.82871</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>15776.30681</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>15931.72439</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>20251.107</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>69.12883000000001</v>
@@ -7879,14 +8126,19 @@
         <v>35.0415</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>125.81619</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>125.79019</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>449.03387</v>
@@ -7898,7 +8150,7 @@
         <v>412.19404</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>755.4454499999999</v>
+        <v>755.4454500000001</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>942.47893</v>
@@ -7916,17 +8168,22 @@
         <v>1009.98067</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>1323.71582</v>
+        <v>1325.3603</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2429.65684</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2440.47789</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>1366.472</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1072.36896</v>
@@ -7956,23 +8213,28 @@
         <v>3875.73522</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>3614.10098</v>
+        <v>3616.37018</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>5351.22225</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>5356.78921</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>5503.868</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>623.3350899999999</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>589.6331400000001</v>
+        <v>589.6331399999999</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>1152.3596</v>
@@ -7987,7 +8249,7 @@
         <v>2532.23217</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>39.51004000000007</v>
+        <v>39.51003999999998</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>1490.96401</v>
@@ -7996,17 +8258,22 @@
         <v>3012.64295</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>2418.11756</v>
+        <v>2418.74228</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>2929.73981</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>2924.48572</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>4145.57</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>8.1744</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>8.173999999999999</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>280.34029</v>
@@ -8135,10 +8417,10 @@
         <v>374.1298899999999</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>531.3881699999999</v>
+        <v>531.3881700000001</v>
       </c>
       <c r="F173" s="33" t="n">
-        <v>718.4146200000001</v>
+        <v>718.4146199999999</v>
       </c>
       <c r="G173" s="23" t="n">
         <v>973.4536400000002</v>
@@ -8156,17 +8438,22 @@
         <v>2116.30842</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>7768.63757</v>
+        <v>7768.668070000001</v>
       </c>
       <c r="M173" s="23" t="n">
         <v>3007.84461</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>3783.996</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8199,26 +8486,31 @@
         <v>6668.520550000001</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>86.58537000000001</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>86.58537</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>335.965</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>280.34029</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>374.1298899999999</v>
+        <v>374.12989</v>
       </c>
       <c r="E175" s="22" t="n">
         <v>529.3281699999999</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>718.4146200000001</v>
+        <v>718.41462</v>
       </c>
       <c r="G175" s="22" t="n">
         <v>837.6446500000002</v>
@@ -8236,17 +8528,22 @@
         <v>2115.02723</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>1100.11702</v>
+        <v>1100.14752</v>
       </c>
       <c r="M175" s="22" t="n">
         <v>2921.25924</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>3448.031</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>78.49907</v>
@@ -8279,14 +8576,19 @@
         <v>24.89563</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>346.54268</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>346.58588</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>499.183</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>1.13771</v>
@@ -8307,7 +8609,7 @@
         <v>0.07243000000000001</v>
       </c>
       <c r="I177" s="22" t="n">
-        <v>41.40112000000001</v>
+        <v>41.40112</v>
       </c>
       <c r="J177" s="21" t="n">
         <v>39.48247</v>
@@ -8319,14 +8621,19 @@
         <v>24.89563</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>91.8415</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>91.8847</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>159.509</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>77.36136</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>254.63843</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>339.607</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.06275</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>12254.23209</v>
@@ -8501,35 +8828,40 @@
         <v>22689.56632</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>30699.97919</v>
+        <v>30699.97919000001</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>37575.83331</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>57722.11826</v>
+        <v>57725.84701</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>82233.67201000001</v>
+        <v>82233.67200999999</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>136564.83928</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>153273.68537</v>
+        <v>153313.12712</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>233785.07365</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>234281.70157</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>293104.533</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
-        <v>5558.891949999999</v>
+        <v>5558.89195</v>
       </c>
       <c r="D183" s="23" t="n">
         <v>6694.79971</v>
@@ -8547,7 +8879,7 @@
         <v>26220.6254</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>48528.38018</v>
+        <v>48528.38018000001</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>68487.79599000001</v>
@@ -8556,23 +8888,28 @@
         <v>114684.76341</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>120033.83452</v>
+        <v>120037.77879</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>193595.4488</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>193599.39307</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>243880.51</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>5113.948719999999</v>
       </c>
       <c r="D184" s="22" t="n">
-        <v>6416.83094</v>
+        <v>6416.830940000001</v>
       </c>
       <c r="E184" s="22" t="n">
         <v>17258.7587</v>
@@ -8596,17 +8933,22 @@
         <v>96532.62849</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>104950.36439</v>
+        <v>104954.30866</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>185869.27516</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>185873.21943</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>227526.97</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>568.7704</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>8674.775160000001</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>20234.097</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>123.82717</v>
@@ -8655,7 +9002,7 @@
         <v>22.53693</v>
       </c>
       <c r="E186" s="22" t="n">
-        <v>66.12092999999999</v>
+        <v>66.12093</v>
       </c>
       <c r="F186" s="21" t="n">
         <v>63.20818</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>950.92652</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>3882.882</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>2.325</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>2104.89182</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>6100.384859999999</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>419.871</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>17.538</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>4622.43648</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>360.864</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>2085.92625</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1418.94109</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>47.20729</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>47.207</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>1.42757</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>11.8</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>4297.46243</v>
@@ -9101,13 +9503,13 @@
         <v>6935.83876</v>
       </c>
       <c r="G197" s="23" t="n">
-        <v>8286.836029999999</v>
+        <v>8286.83603</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>9470.648200000001</v>
+        <v>9470.6482</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>9021.146350000001</v>
+        <v>9024.875099999999</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>12966.60143</v>
@@ -9116,17 +9518,22 @@
         <v>19314.10826</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>27780.43675</v>
+        <v>27815.93423</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>32027.0286</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>32105.487</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>45688.543</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>4288.01261</v>
@@ -9135,10 +9542,10 @@
         <v>2062.56496</v>
       </c>
       <c r="E198" s="22" t="n">
-        <v>5736.946889999999</v>
+        <v>5736.94689</v>
       </c>
       <c r="F198" s="21" t="n">
-        <v>6901.685460000001</v>
+        <v>6901.68546</v>
       </c>
       <c r="G198" s="22" t="n">
         <v>8271.76089</v>
@@ -9156,17 +9563,22 @@
         <v>17547.4854</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>26568.48515</v>
+        <v>26580.08919</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>30877.17588</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>30955.63428</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>41091.559</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>129.78158</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>4431.275</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>9.449819999999999</v>
@@ -9347,26 +9779,31 @@
         <v>34.56791</v>
       </c>
       <c r="I203" s="22" t="n">
-        <v>30.83916</v>
+        <v>34.56791</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>659.9728600000001</v>
+        <v>659.97286</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>560.4667899999999</v>
+        <v>560.4667900000001</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>1204.8116</v>
+        <v>1228.70504</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>1020.07114</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>165.709</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9399,14 +9836,19 @@
         <v>173.413</v>
       </c>
       <c r="M204" s="23" t="n">
-        <v>173.413</v>
-      </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+        <v>155.69093</v>
+      </c>
+      <c r="N204" s="23" t="n">
+        <v>80.31399999999999</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9439,14 +9881,19 @@
         <v>173.413</v>
       </c>
       <c r="M205" s="22" t="n">
-        <v>173.413</v>
-      </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+        <v>155.69093</v>
+      </c>
+      <c r="N205" s="22" t="n">
+        <v>80.31399999999999</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9519,14 +9971,19 @@
         <v>376.40636</v>
       </c>
       <c r="M207" s="23" t="n">
-        <v>467.82716</v>
-      </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+        <v>899.7744799999999</v>
+      </c>
+      <c r="N207" s="23" t="n">
+        <v>899.774</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>467.82716</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>467.827</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9599,14 +10061,19 @@
         <v>0</v>
       </c>
       <c r="M209" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+        <v>431.94732</v>
+      </c>
+      <c r="N209" s="22" t="n">
+        <v>431.947</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>292.98589</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>1420.97123</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2135.422</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>1086.79598</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>1493.602</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>292.98589</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>334.17525</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>641.8200000000001</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>72347.14219</v>
@@ -9907,26 +10409,31 @@
         <v>128244.40139</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>161474.73852</v>
+        <v>161556.07487</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>209488.04838</v>
+        <v>207830.23108</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>295598.39126</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>331705.4906799999</v>
+        <v>331019.60637</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>391231.48425</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>392354.20836</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>470129.47</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>47835.81675</v>
@@ -9944,29 +10451,34 @@
         <v>75463.9506</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>85657.32505000001</v>
+        <v>85657.32505</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>99887.02458000001</v>
+        <v>99987.02458000001</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>119148.39696</v>
+        <v>123548.39696</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>160324.50915</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>178654.23531</v>
+        <v>184132.00617</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>229594.47471</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>232314.23759</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>254888.74</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>45347.16842</v>
@@ -9981,32 +10493,37 @@
         <v>76924.27049</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>76710.51737</v>
+        <v>76710.51736999999</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>90777.60312999999</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>105464.36863</v>
+        <v>105564.36863</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>122327.66863</v>
+        <v>126727.66863</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>164783.56863</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>185483.83457</v>
+        <v>191555.25107</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>234822.64025</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>240143.05675</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>280572.358</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3657.21775</v>
@@ -10018,7 +10535,7 @@
         <v>6533.11394</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>3427.935860000001</v>
+        <v>3427.93586</v>
       </c>
       <c r="G220" s="22" t="n">
         <v>3890.54901</v>
@@ -10027,7 +10544,7 @@
         <v>7553.797</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>7995.231110000001</v>
+        <v>7995.23111</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>5616.35246</v>
@@ -10036,17 +10553,22 @@
         <v>6522.20867</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>8890.938410000001</v>
+        <v>9491.128409999999</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>7141.58349</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>9779.083490000001</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>27600.803</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>6146.3869</v>
@@ -10076,17 +10598,22 @@
         <v>2063.14919</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>2061.33915</v>
+        <v>2067.88351</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>1913.41795</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>1950.26433</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>1917.185</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0.5208200000000001</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>419.17735</v>
@@ -10138,7 +10670,7 @@
         <v>3700.09039</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>4314.462830000001</v>
+        <v>4314.46283</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>4685.96112</v>
@@ -10159,14 +10691,19 @@
         <v>36058.30095</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>35425.50345</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>35565.71554</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>36013.039</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>1509.61813</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>1509.618</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>27.01096</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>113.00883</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>113.009</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>189.89357</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>12683.15127</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>11601.145</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>202.27282</v>
@@ -10433,20 +11000,25 @@
         <v>7662.66923</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>8259.502830000001</v>
+        <v>8259.502829999999</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>22704.18143</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>21119.72522</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>21259.93731</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>22789.267</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>9469.422259999999</v>
@@ -10455,38 +11027,43 @@
         <v>4289.248979999999</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>5882.04156</v>
+        <v>5882.041560000001</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>7245.35353</v>
+        <v>7245.353529999999</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>12160.72876</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>7212.602399999999</v>
+        <v>7212.602400000001</v>
       </c>
       <c r="I231" s="23" t="n">
         <v>11242.54421</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>23611.71337</v>
+        <v>23879.32496</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>30216.0731</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>60649.69461</v>
+        <v>61474.88844</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>45882.55597</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>45968.63694</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>44645.483</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>1117.98042</v>
@@ -10510,23 +11087,28 @@
         <v>2346.4986</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>3167.77618</v>
+        <v>3435.387769999999</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>3790.69709</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>4951.34106</v>
+        <v>5232.47309</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>4975.62501</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>5000.74555</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>5072.555</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1.71196</v>
@@ -10559,14 +11141,19 @@
         <v>14.98628</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>14.04893</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>14.98628</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>14.985</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>4755.64582</v>
@@ -10596,17 +11183,22 @@
         <v>8104.709700000001</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>7875.162340000001</v>
+        <v>8375.162339999999</v>
       </c>
       <c r="M234" s="22" t="n">
         <v>2877.1603</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>3244.219</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>10.08538</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3583.99868</v>
@@ -10676,17 +11273,22 @@
         <v>18268.72786</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>47808.20492999999</v>
+        <v>47852.26672999999</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>37915.72173</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>37975.74481</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>36313.724</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>17262.27012</v>
@@ -10707,32 +11309,37 @@
         <v>45172.26039</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>60624.39518999999</v>
+        <v>60624.39519</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>66885.41903999999</v>
+        <v>67610.5615</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>84299.57954999999</v>
+        <v>84299.57955000001</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>101646.04097</v>
+        <v>103329.50534</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>102693.89467</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>104001.37343</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>136094.221</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-6916.916380000001</v>
+        <v>-6916.91638</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-8394.132900000001</v>
+        <v>-8394.132899999999</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-8633.571</v>
@@ -10747,29 +11354,34 @@
         <v>-23300.95852</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-26992.77761</v>
+        <v>-27006.2172</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-22684.88582</v>
+        <v>-29425.29025</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-35471.81358</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-29611.55487</v>
+        <v>-37523.40779</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-63091.36165</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-65391.74618</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-79240.727</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>4277.372090000001</v>
+        <v>4277.37209</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>10469.61953</v>
@@ -10787,26 +11399,31 @@
         <v>9576.929289999998</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>12522.56625</v>
+        <v>12517.34219</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>8828.02313</v>
+        <v>8517.856210000002</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>43496.48493</v>
+        <v>43496.48493000001</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-15691.22629</v>
+        <v>-16451.68674</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>40726.41709999999</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>39895.99103999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>77728.71400000001</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>5706.95708</v>
@@ -10815,7 +11432,7 @@
         <v>11639.89041</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>6406.975240000001</v>
+        <v>6406.975239999999</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>13949.26336</v>
@@ -10836,17 +11453,22 @@
         <v>48183.89315</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>16963.97614</v>
+        <v>16971.92801</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>53544.49556</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>53608.08783</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>91412.16</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1429.58499</v>
@@ -10867,26 +11489,31 @@
         <v>4863.767970000001</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>2744.92793</v>
+        <v>2750.15199</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>7937.802470000001</v>
+        <v>8247.96939</v>
       </c>
       <c r="K241" s="22" t="n">
-        <v>4687.408219999999</v>
+        <v>4687.40822</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>32655.20243</v>
+        <v>33423.61475</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>12818.07846</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>13712.09679</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>13683.446</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>177010.34152</v>
@@ -10904,26 +11531,29 @@
         <v>331115.77542</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>382496.6723200001</v>
+        <v>382496.67232</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>528743.11801</v>
+        <v>528920.52402</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>642042.23654</v>
+        <v>649459.6242000001</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>858256.6921600001</v>
+        <v>858256.6921599999</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1100909.96412</v>
+        <v>1113022.82087</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1296368.11443</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1309326.98055</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1711029.974</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>133</v>
@@ -10963,23 +11596,26 @@
         <v>160</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>211</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>224</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>257</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>289</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>